--- a/ArticleManage/main_working_folder/output_folders/Data 98 Monolithic nitrogen doped carbon/Data98_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 98 Monolithic nitrogen doped carbon/Data98_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="A-p1000" sheetId="1" r:id="rId1"/>
-    <sheet name="A-p1100" sheetId="2" r:id="rId4"/>
-    <sheet name="A-p600" sheetId="3" r:id="rId5"/>
-    <sheet name="A-p700" sheetId="4" r:id="rId6"/>
-    <sheet name="A-p800" sheetId="5" r:id="rId7"/>
-    <sheet name="A-p900" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 6 A-p1000  0-1-0-185 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 6 A-p1100  0-1-0-185 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 6 A-p600  0-1-0-185 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 6 A-p700  0-1-0-185 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 6 A-p800  0-1-0-185 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 6 A-p900  0-1-0-185 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A-p1000</a:t>
+              <a:t>Izoterma adsorpcji probki A-p1000 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A-p1000'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 A-p1000  0-1-0-185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A-p1000'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 A-p1000  0-1-0-185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -194,6 +194,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -263,6 +265,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="185"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -427,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A-p1100</a:t>
+              <a:t>Izoterma adsorpcji probki A-p1100 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A-p1100'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 A-p1100  0-1-0-185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A-p1100'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 A-p1100  0-1-0-185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -504,6 +508,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -573,6 +579,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="185"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A-p600</a:t>
+              <a:t>Izoterma adsorpcji probki A-p600 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A-p600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 A-p600  0-1-0-185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A-p600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 A-p600  0-1-0-185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -814,6 +822,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -883,6 +893,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="185"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1047,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A-p700</a:t>
+              <a:t>Izoterma adsorpcji probki A-p700 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1106,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A-p700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 A-p700  0-1-0-185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A-p700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 A-p700  0-1-0-185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1124,6 +1136,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1193,6 +1207,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="185"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1357,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A-p800</a:t>
+              <a:t>Izoterma adsorpcji probki A-p800 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1416,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A-p800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 A-p800  0-1-0-185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A-p800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 A-p800  0-1-0-185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1434,6 +1450,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1503,6 +1521,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="185"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1667,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A-p900</a:t>
+              <a:t>Izoterma adsorpcji probki A-p900 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1726,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A-p900'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 A-p900  0-1-0-185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A-p900'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 A-p900  0-1-0-185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1744,6 +1764,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1813,6 +1835,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="185"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 98 Monolithic nitrogen doped carbon/Data98_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 98 Monolithic nitrogen doped carbon/Data98_all_graphs_excel.xlsx
@@ -5841,7 +5841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5862,445 +5862,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9886</v>
+        <v>0.9898</v>
       </c>
       <c r="B3" s="0">
-        <v>66.6808</v>
+        <v>67.3544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9875</v>
+        <v>0.9863</v>
       </c>
       <c r="B4" s="0">
-        <v>59.2718</v>
+        <v>57.2512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9863</v>
+        <v>0.9803</v>
       </c>
       <c r="B5" s="0">
-        <v>56.5777</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9815</v>
+        <v>0.9682</v>
       </c>
       <c r="B6" s="0">
-        <v>47.8216</v>
+        <v>37.0449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9778</v>
+        <v>0.9476</v>
       </c>
       <c r="B7" s="0">
-        <v>45.1274</v>
+        <v>28.2888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9694</v>
+        <v>0.9233</v>
       </c>
       <c r="B8" s="0">
-        <v>39.29</v>
+        <v>23.7985</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9657</v>
+        <v>0.8978</v>
       </c>
       <c r="B9" s="0">
-        <v>36.3714</v>
+        <v>21.1044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95</v>
+        <v>0.8747</v>
       </c>
       <c r="B10" s="0">
-        <v>29.6359</v>
+        <v>19.3083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9415</v>
+        <v>0.8492</v>
       </c>
       <c r="B11" s="0">
-        <v>27.1663</v>
+        <v>17.9612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9294</v>
+        <v>0.8201</v>
       </c>
       <c r="B12" s="0">
-        <v>24.4721</v>
+        <v>16.8386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9172</v>
+        <v>0.7994</v>
       </c>
       <c r="B13" s="0">
-        <v>22.676</v>
+        <v>16.3896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9075</v>
+        <v>0.7496</v>
       </c>
       <c r="B14" s="0">
-        <v>21.7779</v>
+        <v>15.267</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8905</v>
+        <v>0.6998</v>
       </c>
       <c r="B15" s="0">
-        <v>19.9818</v>
+        <v>14.3689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.8796</v>
+        <v>0.65</v>
       </c>
       <c r="B16" s="0">
-        <v>19.3083</v>
+        <v>13.9199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.865</v>
+        <v>0.5989</v>
       </c>
       <c r="B17" s="0">
-        <v>18.6347</v>
+        <v>13.4709</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.8565</v>
+        <v>0.5491</v>
       </c>
       <c r="B18" s="0">
-        <v>18.4102</v>
+        <v>12.7973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.8419</v>
+        <v>0.4993</v>
       </c>
       <c r="B19" s="0">
-        <v>17.7367</v>
+        <v>12.3483</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8286</v>
+        <v>0.4495</v>
       </c>
       <c r="B20" s="0">
-        <v>17.0631</v>
+        <v>12.1238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.8164</v>
+        <v>0.3985</v>
       </c>
       <c r="B21" s="0">
-        <v>16.6141</v>
+        <v>11.6748</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8031</v>
+        <v>0.3499</v>
       </c>
       <c r="B22" s="0">
-        <v>16.165</v>
+        <v>11.4502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7945</v>
+        <v>0.3</v>
       </c>
       <c r="B23" s="0">
-        <v>16.165</v>
+        <v>11.0012</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7581</v>
+        <v>0.249</v>
       </c>
       <c r="B24" s="0">
-        <v>15.267</v>
+        <v>10.7767</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7387</v>
+        <v>0.198</v>
       </c>
       <c r="B25" s="0">
-        <v>15.0425</v>
+        <v>10.5522</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7083</v>
+        <v>0.1798</v>
       </c>
       <c r="B26" s="0">
-        <v>14.3689</v>
+        <v>10.3277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6925</v>
+        <v>0.1603</v>
       </c>
       <c r="B27" s="0">
-        <v>14.3689</v>
+        <v>10.1032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6597</v>
+        <v>0.1397</v>
       </c>
       <c r="B28" s="0">
-        <v>13.9199</v>
+        <v>10.1032</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6402</v>
+        <v>0.1178</v>
       </c>
       <c r="B29" s="0">
-        <v>13.9199</v>
+        <v>10.1032</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6111</v>
+        <v>0.0996</v>
       </c>
       <c r="B30" s="0">
-        <v>13.4709</v>
+        <v>9.8786</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5916</v>
+        <v>0.0801</v>
       </c>
       <c r="B31" s="0">
-        <v>13.4709</v>
+        <v>9.4296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5576</v>
+        <v>0.0656</v>
       </c>
       <c r="B32" s="0">
-        <v>12.7973</v>
+        <v>9.4296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5406</v>
+        <v>0.0303</v>
       </c>
       <c r="B33" s="0">
-        <v>12.7973</v>
+        <v>8.7561</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.509</v>
+        <v>0.0097</v>
       </c>
       <c r="B34" s="0">
-        <v>12.5728</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.4896</v>
-      </c>
-      <c r="B35" s="0">
-        <v>12.3483</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.4592</v>
-      </c>
-      <c r="B36" s="0">
-        <v>11.8993</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.4386</v>
-      </c>
-      <c r="B37" s="0">
-        <v>11.8993</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.407</v>
-      </c>
-      <c r="B38" s="0">
-        <v>11.8993</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.39</v>
-      </c>
-      <c r="B39" s="0">
-        <v>11.6748</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.3572</v>
-      </c>
-      <c r="B40" s="0">
-        <v>11.6748</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.3377</v>
-      </c>
-      <c r="B41" s="0">
-        <v>11.2257</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.3073</v>
-      </c>
-      <c r="B42" s="0">
-        <v>11.2257</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.2879</v>
-      </c>
-      <c r="B43" s="0">
-        <v>10.7767</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B44" s="0">
-        <v>10.7767</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.2369</v>
-      </c>
-      <c r="B45" s="0">
-        <v>10.3277</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.2101</v>
-      </c>
-      <c r="B46" s="0">
-        <v>10.1032</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.1919</v>
-      </c>
-      <c r="B47" s="0">
-        <v>10.1032</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.1725</v>
-      </c>
-      <c r="B48" s="0">
-        <v>9.8786</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.1518</v>
-      </c>
-      <c r="B49" s="0">
-        <v>10.1032</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.1312</v>
-      </c>
-      <c r="B50" s="0">
-        <v>10.1032</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.1129</v>
-      </c>
-      <c r="B51" s="0">
-        <v>9.6541</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0899</v>
-      </c>
-      <c r="B52" s="0">
-        <v>9.4296</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0728</v>
-      </c>
-      <c r="B53" s="0">
-        <v>9.2051</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0583</v>
-      </c>
-      <c r="B54" s="0">
-        <v>8.9806</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0388</v>
-      </c>
-      <c r="B55" s="0">
-        <v>8.7561</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0242</v>
-      </c>
-      <c r="B56" s="0">
-        <v>8.307</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0109</v>
-      </c>
-      <c r="B57" s="0">
         <v>7.858</v>
       </c>
     </row>
-    <row r="58"/>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6309,7 +6125,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6330,405 +6146,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9937</v>
       </c>
       <c r="B3" s="0">
-        <v>7.2599</v>
+        <v>32.7791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9889</v>
       </c>
       <c r="B4" s="0">
-        <v>7.683</v>
+        <v>26.9417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9792</v>
       </c>
       <c r="B5" s="0">
-        <v>7.9659</v>
+        <v>22.4515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.9719</v>
       </c>
       <c r="B6" s="0">
-        <v>8.2054</v>
+        <v>19.9818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.9489</v>
       </c>
       <c r="B7" s="0">
-        <v>8.3177</v>
+        <v>16.3896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.9246</v>
       </c>
       <c r="B8" s="0">
-        <v>8.3646</v>
+        <v>14.3689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.8991</v>
       </c>
       <c r="B9" s="0">
-        <v>8.4169</v>
+        <v>13.6954</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.8748</v>
       </c>
       <c r="B10" s="0">
-        <v>8.4279</v>
+        <v>12.7973</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.8493</v>
       </c>
       <c r="B11" s="0">
-        <v>8.3468</v>
+        <v>12.3483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.8189</v>
       </c>
       <c r="B12" s="0">
-        <v>8.4268</v>
+        <v>11.8993</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.7994</v>
       </c>
       <c r="B13" s="0">
-        <v>8.5572</v>
+        <v>11.4502</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.7484</v>
       </c>
       <c r="B14" s="0">
-        <v>8.7013</v>
+        <v>11.2257</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.6986</v>
       </c>
       <c r="B15" s="0">
-        <v>8.8659</v>
+        <v>10.7767</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.6488</v>
       </c>
       <c r="B16" s="0">
-        <v>8.9981</v>
+        <v>10.7767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.599</v>
       </c>
       <c r="B17" s="0">
-        <v>9.137</v>
+        <v>10.3277</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.5491</v>
       </c>
       <c r="B18" s="0">
-        <v>9.3466</v>
+        <v>10.3277</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.4993</v>
       </c>
       <c r="B19" s="0">
-        <v>9.6199</v>
+        <v>10.3277</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.4495</v>
       </c>
       <c r="B20" s="0">
-        <v>9.8808</v>
+        <v>10.1032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.3997</v>
       </c>
       <c r="B21" s="0">
-        <v>10.0542</v>
+        <v>9.8786</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.3499</v>
       </c>
       <c r="B22" s="0">
-        <v>10.1555</v>
+        <v>9.6541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.3001</v>
       </c>
       <c r="B23" s="0">
-        <v>10.2135</v>
+        <v>9.6541</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.2502</v>
       </c>
       <c r="B24" s="0">
-        <v>10.2124</v>
+        <v>9.4296</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.2004</v>
       </c>
       <c r="B25" s="0">
-        <v>10.1381</v>
+        <v>9.2051</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.1786</v>
       </c>
       <c r="B26" s="0">
-        <v>10.0069</v>
+        <v>9.2051</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.1579</v>
       </c>
       <c r="B27" s="0">
-        <v>9.8619</v>
+        <v>8.9806</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.1397</v>
       </c>
       <c r="B28" s="0">
-        <v>9.8492</v>
+        <v>8.9806</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.1202</v>
       </c>
       <c r="B29" s="0">
-        <v>10.0687</v>
+        <v>8.9806</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.0996</v>
       </c>
       <c r="B30" s="0">
-        <v>10.3864</v>
+        <v>8.9806</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.0814</v>
       </c>
       <c r="B31" s="0">
-        <v>10.6578</v>
+        <v>8.7561</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.0668</v>
       </c>
       <c r="B32" s="0">
-        <v>10.8866</v>
+        <v>8.7561</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.0315</v>
       </c>
       <c r="B33" s="0">
-        <v>11.0944</v>
+        <v>8.7561</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.0085</v>
       </c>
       <c r="B34" s="0">
-        <v>11.2098</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>11.1658</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>11.0281</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>10.8995</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>10.9182</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>11.1613</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>11.4825</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>11.7342</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>11.9651</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>12.2663</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>12.6863</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>13.2257</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9913</v>
-      </c>
-      <c r="B46" s="0">
-        <v>30.7585</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9901</v>
-      </c>
-      <c r="B47" s="0">
-        <v>28.7379</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.984</v>
-      </c>
-      <c r="B48" s="0">
-        <v>24.6966</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9646</v>
-      </c>
-      <c r="B49" s="0">
-        <v>18.6347</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9367</v>
-      </c>
-      <c r="B50" s="0">
-        <v>15.4915</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.91</v>
-      </c>
-      <c r="B51" s="0">
-        <v>13.9199</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.8881</v>
-      </c>
-      <c r="B52" s="0">
-        <v>13.4709</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>7.6335</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6737,7 +6409,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6758,445 +6430,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0078</v>
       </c>
       <c r="B3" s="0">
-        <v>102.3498</v>
+        <v>99.909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0273</v>
       </c>
       <c r="B4" s="0">
-        <v>104.9237</v>
+        <v>103.9502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0576</v>
       </c>
       <c r="B5" s="0">
-        <v>106.5199</v>
+        <v>106.8689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0819</v>
       </c>
       <c r="B6" s="0">
-        <v>107.7186</v>
+        <v>108.216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.0989</v>
       </c>
       <c r="B7" s="0">
-        <v>108.6141</v>
+        <v>108.8896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1208</v>
       </c>
       <c r="B8" s="0">
-        <v>109.2664</v>
+        <v>109.7876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1402</v>
       </c>
       <c r="B9" s="0">
-        <v>109.8094</v>
+        <v>110.4612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1609</v>
       </c>
       <c r="B10" s="0">
-        <v>110.3363</v>
+        <v>110.9102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1803</v>
       </c>
       <c r="B11" s="0">
-        <v>111.2168</v>
+        <v>111.3592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.1998</v>
       </c>
       <c r="B12" s="0">
-        <v>112.0761</v>
+        <v>111.8083</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2471</v>
       </c>
       <c r="B13" s="0">
-        <v>112.4116</v>
+        <v>112.4818</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.3006</v>
       </c>
       <c r="B14" s="0">
-        <v>112.3085</v>
+        <v>113.3799</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.3504</v>
       </c>
       <c r="B15" s="0">
-        <v>112.6137</v>
+        <v>114.0534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.399</v>
       </c>
       <c r="B16" s="0">
-        <v>113.1373</v>
+        <v>114.7269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.4488</v>
       </c>
       <c r="B17" s="0">
-        <v>113.3169</v>
+        <v>115.176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4986</v>
       </c>
       <c r="B18" s="0">
-        <v>113.8196</v>
+        <v>115.8495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5484</v>
       </c>
       <c r="B19" s="0">
-        <v>114.1575</v>
+        <v>116.5231</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5983</v>
       </c>
       <c r="B20" s="0">
-        <v>114.5208</v>
+        <v>116.9721</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.6481</v>
       </c>
       <c r="B21" s="0">
-        <v>114.6314</v>
+        <v>117.6456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6991</v>
       </c>
       <c r="B22" s="0">
-        <v>114.4629</v>
+        <v>118.3192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.7489</v>
       </c>
       <c r="B23" s="0">
-        <v>114.8329</v>
+        <v>118.9927</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7975</v>
       </c>
       <c r="B24" s="0">
-        <v>114.7</v>
+        <v>120.1153</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.8194</v>
       </c>
       <c r="B25" s="0">
-        <v>114.8426</v>
+        <v>120.5643</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8485</v>
       </c>
       <c r="B26" s="0">
-        <v>115.2241</v>
+        <v>121.6869</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.874</v>
       </c>
       <c r="B27" s="0">
-        <v>115.2035</v>
+        <v>122.8095</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8983</v>
       </c>
       <c r="B28" s="0">
-        <v>115.7906</v>
+        <v>124.1566</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.9226</v>
       </c>
       <c r="B29" s="0">
-        <v>116.2166</v>
+        <v>126.4017</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.9469</v>
       </c>
       <c r="B30" s="0">
-        <v>116.5228</v>
+        <v>129.9939</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.9687</v>
       </c>
       <c r="B31" s="0">
-        <v>116.7185</v>
+        <v>136.9539</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9784</v>
       </c>
       <c r="B32" s="0">
-        <v>116.7948</v>
+        <v>143.2403</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.9868</v>
       </c>
       <c r="B33" s="0">
-        <v>117.1492</v>
+        <v>152.8944</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.9953</v>
       </c>
       <c r="B34" s="0">
-        <v>117.4032</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>117.9101</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>118.5315</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>118.8148</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>119.0454</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>119.0375</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>119.4966</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>120.1561</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>120.2682</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>120.8247</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>121.7036</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>122.4224</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>123.2254</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>124.3335</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>126.0475</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9457</v>
-      </c>
-      <c r="B49" s="0">
-        <v>129.7694</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9675</v>
-      </c>
-      <c r="B50" s="0">
-        <v>136.2803</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9784</v>
-      </c>
-      <c r="B51" s="0">
-        <v>143.2403</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9856</v>
-      </c>
-      <c r="B52" s="0">
-        <v>152.4454</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9953</v>
-      </c>
-      <c r="B53" s="0">
-        <v>159.6299</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.982</v>
-      </c>
-      <c r="B54" s="0">
-        <v>147.2816</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9736</v>
-      </c>
-      <c r="B55" s="0">
-        <v>140.0971</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.959</v>
-      </c>
-      <c r="B56" s="0">
-        <v>133.8107</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.9941</v>
-      </c>
-      <c r="B57" s="0">
-        <v>156.7112</v>
-      </c>
-    </row>
-    <row r="58"/>
+        <v>160.0789</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7204,750 +6692,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0102</v>
-      </c>
-      <c r="B3" s="0">
-        <v>102.7693</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0314</v>
-      </c>
-      <c r="B4" s="0">
-        <v>107.8039</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0592</v>
-      </c>
-      <c r="B5" s="0">
-        <v>110.5722</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0836</v>
-      </c>
-      <c r="B6" s="0">
-        <v>111.8331</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1079</v>
-      </c>
-      <c r="B7" s="0">
-        <v>113.1075</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1323</v>
-      </c>
-      <c r="B8" s="0">
-        <v>114.2853</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1566</v>
-      </c>
-      <c r="B9" s="0">
-        <v>114.9216</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.181</v>
-      </c>
-      <c r="B10" s="0">
-        <v>115.001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2047</v>
-      </c>
-      <c r="B11" s="0">
-        <v>115.6943</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2335</v>
-      </c>
-      <c r="B12" s="0">
-        <v>116.0934</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2561</v>
-      </c>
-      <c r="B13" s="0">
-        <v>116.7551</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2822</v>
-      </c>
-      <c r="B14" s="0">
-        <v>116.8552</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3045</v>
-      </c>
-      <c r="B15" s="0">
-        <v>117.2954</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3298</v>
-      </c>
-      <c r="B16" s="0">
-        <v>117.6169</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3532</v>
-      </c>
-      <c r="B17" s="0">
-        <v>117.634</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3799</v>
-      </c>
-      <c r="B18" s="0">
-        <v>118.3344</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4019</v>
-      </c>
-      <c r="B19" s="0">
-        <v>118.6928</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4282</v>
-      </c>
-      <c r="B20" s="0">
-        <v>119.0572</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4513</v>
-      </c>
-      <c r="B21" s="0">
-        <v>119.5734</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4769</v>
-      </c>
-      <c r="B22" s="0">
-        <v>119.6452</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B23" s="0">
-        <v>120.3684</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.5249</v>
-      </c>
-      <c r="B24" s="0">
-        <v>120.3121</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5493</v>
-      </c>
-      <c r="B25" s="0">
-        <v>120.7175</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5731</v>
-      </c>
-      <c r="B26" s="0">
-        <v>120.9098</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.598</v>
-      </c>
-      <c r="B27" s="0">
-        <v>121.5192</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6227</v>
-      </c>
-      <c r="B28" s="0">
-        <v>121.6523</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6467</v>
-      </c>
-      <c r="B29" s="0">
-        <v>121.8652</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6721</v>
-      </c>
-      <c r="B30" s="0">
-        <v>122.4449</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6967</v>
-      </c>
-      <c r="B31" s="0">
-        <v>122.9914</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7203</v>
-      </c>
-      <c r="B32" s="0">
-        <v>123.3824</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7448</v>
-      </c>
-      <c r="B33" s="0">
-        <v>123.8337</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.769</v>
-      </c>
-      <c r="B34" s="0">
-        <v>124.4191</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7958</v>
-      </c>
-      <c r="B35" s="0">
-        <v>125.2627</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8195</v>
-      </c>
-      <c r="B36" s="0">
-        <v>126.0824</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.845</v>
-      </c>
-      <c r="B37" s="0">
-        <v>127.1473</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.87</v>
-      </c>
-      <c r="B38" s="0">
-        <v>128.3943</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8932</v>
-      </c>
-      <c r="B39" s="0">
-        <v>129.7651</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9165</v>
-      </c>
-      <c r="B40" s="0">
-        <v>132.1983</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9867</v>
-      </c>
-      <c r="B41" s="0">
-        <v>167.6978</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.988</v>
-      </c>
-      <c r="B42" s="0">
-        <v>177.7271</v>
-      </c>
-    </row>
-    <row r="43"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0087</v>
-      </c>
-      <c r="B3" s="0">
-        <v>93.0385</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0439</v>
-      </c>
-      <c r="B4" s="0">
-        <v>101.4117</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0684</v>
-      </c>
-      <c r="B5" s="0">
-        <v>103.5698</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0928</v>
-      </c>
-      <c r="B6" s="0">
-        <v>104.8811</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1171</v>
-      </c>
-      <c r="B7" s="0">
-        <v>105.5086</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1415</v>
-      </c>
-      <c r="B8" s="0">
-        <v>106.5896</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1658</v>
-      </c>
-      <c r="B9" s="0">
-        <v>107.1463</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1902</v>
-      </c>
-      <c r="B10" s="0">
-        <v>107.6971</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2131</v>
-      </c>
-      <c r="B11" s="0">
-        <v>108.1248</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2407</v>
-      </c>
-      <c r="B12" s="0">
-        <v>108.5851</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2637</v>
-      </c>
-      <c r="B13" s="0">
-        <v>108.894</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.29</v>
-      </c>
-      <c r="B14" s="0">
-        <v>109.377</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3114</v>
-      </c>
-      <c r="B15" s="0">
-        <v>109.6482</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3386</v>
-      </c>
-      <c r="B16" s="0">
-        <v>110.063</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3611</v>
-      </c>
-      <c r="B17" s="0">
-        <v>110.3189</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3868</v>
-      </c>
-      <c r="B18" s="0">
-        <v>110.7732</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4091</v>
-      </c>
-      <c r="B19" s="0">
-        <v>111.031</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4355</v>
-      </c>
-      <c r="B20" s="0">
-        <v>111.3573</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4578</v>
-      </c>
-      <c r="B21" s="0">
-        <v>111.5818</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4843</v>
-      </c>
-      <c r="B22" s="0">
-        <v>111.9785</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5068</v>
-      </c>
-      <c r="B23" s="0">
-        <v>112.24</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.5337</v>
-      </c>
-      <c r="B24" s="0">
-        <v>112.6013</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5564</v>
-      </c>
-      <c r="B25" s="0">
-        <v>112.8357</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5826</v>
-      </c>
-      <c r="B26" s="0">
-        <v>113.2693</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.6051</v>
-      </c>
-      <c r="B27" s="0">
-        <v>113.6607</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6294</v>
-      </c>
-      <c r="B28" s="0">
-        <v>113.9232</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6533</v>
-      </c>
-      <c r="B29" s="0">
-        <v>114.2386</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6781</v>
-      </c>
-      <c r="B30" s="0">
-        <v>114.7362</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.702</v>
-      </c>
-      <c r="B31" s="0">
-        <v>115.3334</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7284</v>
-      </c>
-      <c r="B32" s="0">
-        <v>115.6716</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7513</v>
-      </c>
-      <c r="B33" s="0">
-        <v>115.6725</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7766</v>
-      </c>
-      <c r="B34" s="0">
-        <v>116.8434</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9469</v>
-      </c>
-      <c r="B35" s="0">
-        <v>131.7861</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9663</v>
-      </c>
-      <c r="B36" s="0">
-        <v>138.9745</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9772</v>
-      </c>
-      <c r="B37" s="0">
-        <v>147.7306</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9892</v>
-      </c>
-      <c r="B38" s="0">
-        <v>168.835</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0249</v>
-      </c>
-      <c r="B39" s="0">
-        <v>99.0109</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8279</v>
-      </c>
-      <c r="B40" s="0">
-        <v>118.7682</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8085</v>
-      </c>
-      <c r="B41" s="0">
-        <v>118.0947</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.789</v>
-      </c>
-      <c r="B42" s="0">
-        <v>117.4211</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8388</v>
-      </c>
-      <c r="B43" s="0">
-        <v>119.4417</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8607</v>
-      </c>
-      <c r="B44" s="0">
-        <v>120.3398</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8826</v>
-      </c>
-      <c r="B45" s="0">
-        <v>121.6869</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9105</v>
-      </c>
-      <c r="B46" s="0">
-        <v>124.6056</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9311</v>
-      </c>
-      <c r="B47" s="0">
-        <v>127.5243</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9578</v>
-      </c>
-      <c r="B48" s="0">
-        <v>135.8313</v>
-      </c>
-    </row>
-    <row r="49"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -7957,7 +6701,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -7970,242 +6714,242 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0073</v>
+        <v>0.009</v>
       </c>
       <c r="B3" s="0">
-        <v>105.8828</v>
+        <v>102.3786</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0356</v>
+        <v>0.0272</v>
       </c>
       <c r="B4" s="0">
-        <v>112.5538</v>
+        <v>107.318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0676</v>
+        <v>0.0576</v>
       </c>
       <c r="B5" s="0">
-        <v>115.774</v>
+        <v>110.6857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0995</v>
+        <v>0.0807</v>
       </c>
       <c r="B6" s="0">
-        <v>117.8057</v>
+        <v>112.0328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1315</v>
+        <v>0.1001</v>
       </c>
       <c r="B7" s="0">
-        <v>119.5114</v>
+        <v>112.7063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1634</v>
+        <v>0.1208</v>
       </c>
       <c r="B8" s="0">
-        <v>120.5025</v>
+        <v>113.6044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1954</v>
+        <v>0.1402</v>
       </c>
       <c r="B9" s="0">
-        <v>121.8191</v>
+        <v>113.8289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2274</v>
+        <v>0.1596</v>
       </c>
       <c r="B10" s="0">
-        <v>122.1034</v>
+        <v>114.7269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2593</v>
+        <v>0.1803</v>
       </c>
       <c r="B11" s="0">
-        <v>123.1021</v>
+        <v>115.176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2913</v>
+        <v>0.1997</v>
       </c>
       <c r="B12" s="0">
-        <v>123.5909</v>
+        <v>115.625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3232</v>
+        <v>0.2471</v>
       </c>
       <c r="B13" s="0">
-        <v>123.6838</v>
+        <v>116.5231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3552</v>
+        <v>0.2994</v>
       </c>
       <c r="B14" s="0">
-        <v>124.5837</v>
+        <v>117.4211</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3856</v>
+        <v>0.3492</v>
       </c>
       <c r="B15" s="0">
-        <v>124.5933</v>
+        <v>118.0947</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4191</v>
+        <v>0.3978</v>
       </c>
       <c r="B16" s="0">
-        <v>124.9455</v>
+        <v>118.7682</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4511</v>
+        <v>0.4488</v>
       </c>
       <c r="B17" s="0">
-        <v>125.6994</v>
+        <v>119.4417</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.483</v>
+        <v>0.4986</v>
       </c>
       <c r="B18" s="0">
-        <v>125.9717</v>
+        <v>120.1153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.515</v>
+        <v>0.5484</v>
       </c>
       <c r="B19" s="0">
-        <v>126.2685</v>
+        <v>120.7888</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.547</v>
+        <v>0.5982</v>
       </c>
       <c r="B20" s="0">
-        <v>126.7373</v>
+        <v>121.4624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5789</v>
+        <v>0.648</v>
       </c>
       <c r="B21" s="0">
-        <v>126.7641</v>
+        <v>122.1359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6109</v>
+        <v>0.6991</v>
       </c>
       <c r="B22" s="0">
-        <v>127.3667</v>
+        <v>123.034</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6429</v>
+        <v>0.7489</v>
       </c>
       <c r="B23" s="0">
-        <v>127.804</v>
+        <v>124.1566</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6748</v>
+        <v>0.7975</v>
       </c>
       <c r="B24" s="0">
-        <v>127.7417</v>
+        <v>125.2791</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7068</v>
+        <v>0.8181</v>
       </c>
       <c r="B25" s="0">
-        <v>128.5886</v>
+        <v>126.1772</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7387</v>
+        <v>0.8473</v>
       </c>
       <c r="B26" s="0">
-        <v>129.0888</v>
+        <v>127.5243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7703</v>
+        <v>0.8716</v>
       </c>
       <c r="B27" s="0">
-        <v>129.3636</v>
+        <v>128.8714</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8023</v>
+        <v>0.8971</v>
       </c>
       <c r="B28" s="0">
-        <v>129.8026</v>
+        <v>130.6675</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8345</v>
+        <v>0.9226</v>
       </c>
       <c r="B29" s="0">
-        <v>131.1187</v>
+        <v>133.3617</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8676</v>
+        <v>0.9456</v>
       </c>
       <c r="B30" s="0">
-        <v>131.5261</v>
+        <v>138.5255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8985</v>
+        <v>0.9855</v>
       </c>
       <c r="B31" s="0">
-        <v>133.3679</v>
+        <v>168.835</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9305</v>
+        <v>0.9891</v>
       </c>
       <c r="B32" s="0">
-        <v>135.8012</v>
+        <v>179.6117</v>
       </c>
     </row>
     <row r="33"/>
@@ -8213,4 +6957,540 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0079</v>
+      </c>
+      <c r="B3" s="0">
+        <v>93.1735</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0297</v>
+      </c>
+      <c r="B4" s="0">
+        <v>100.358</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0589</v>
+      </c>
+      <c r="B5" s="0">
+        <v>102.8277</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0807</v>
+      </c>
+      <c r="B6" s="0">
+        <v>104.1748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1002</v>
+      </c>
+      <c r="B7" s="0">
+        <v>105.0728</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1208</v>
+      </c>
+      <c r="B8" s="0">
+        <v>105.9709</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1402</v>
+      </c>
+      <c r="B9" s="0">
+        <v>106.6444</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1597</v>
+      </c>
+      <c r="B10" s="0">
+        <v>107.0934</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1791</v>
+      </c>
+      <c r="B11" s="0">
+        <v>107.5425</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1998</v>
+      </c>
+      <c r="B12" s="0">
+        <v>107.9915</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2472</v>
+      </c>
+      <c r="B13" s="0">
+        <v>108.665</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2994</v>
+      </c>
+      <c r="B14" s="0">
+        <v>109.5631</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3492</v>
+      </c>
+      <c r="B15" s="0">
+        <v>110.4612</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.399</v>
+      </c>
+      <c r="B16" s="0">
+        <v>111.1347</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4476</v>
+      </c>
+      <c r="B17" s="0">
+        <v>111.5837</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4987</v>
+      </c>
+      <c r="B18" s="0">
+        <v>112.0328</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5473</v>
+      </c>
+      <c r="B19" s="0">
+        <v>112.9308</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5983</v>
+      </c>
+      <c r="B20" s="0">
+        <v>113.6044</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6481</v>
+      </c>
+      <c r="B21" s="0">
+        <v>114.2779</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6979</v>
+      </c>
+      <c r="B22" s="0">
+        <v>115.176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7477</v>
+      </c>
+      <c r="B23" s="0">
+        <v>116.1863</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7975</v>
+      </c>
+      <c r="B24" s="0">
+        <v>117.6456</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8194</v>
+      </c>
+      <c r="B25" s="0">
+        <v>118.5437</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8485</v>
+      </c>
+      <c r="B26" s="0">
+        <v>119.6663</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8722</v>
+      </c>
+      <c r="B27" s="0">
+        <v>121.0133</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8977</v>
+      </c>
+      <c r="B28" s="0">
+        <v>122.9217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9226</v>
+      </c>
+      <c r="B29" s="0">
+        <v>125.8404</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9463</v>
+      </c>
+      <c r="B30" s="0">
+        <v>130.2184</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9675</v>
+      </c>
+      <c r="B31" s="0">
+        <v>139.4235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9772</v>
+      </c>
+      <c r="B32" s="0">
+        <v>147.9551</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9844</v>
+      </c>
+      <c r="B33" s="0">
+        <v>158.9563</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.988</v>
+      </c>
+      <c r="B34" s="0">
+        <v>169.0595</v>
+      </c>
+    </row>
+    <row r="35"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.009</v>
+      </c>
+      <c r="B3" s="0">
+        <v>104.3993</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0272</v>
+      </c>
+      <c r="B4" s="0">
+        <v>112.0328</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0588</v>
+      </c>
+      <c r="B5" s="0">
+        <v>115.176</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0806</v>
+      </c>
+      <c r="B6" s="0">
+        <v>116.7476</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1001</v>
+      </c>
+      <c r="B7" s="0">
+        <v>117.8701</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1207</v>
+      </c>
+      <c r="B8" s="0">
+        <v>118.9927</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1414</v>
+      </c>
+      <c r="B9" s="0">
+        <v>119.8908</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1608</v>
+      </c>
+      <c r="B10" s="0">
+        <v>120.3398</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1803</v>
+      </c>
+      <c r="B11" s="0">
+        <v>121.0133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1997</v>
+      </c>
+      <c r="B12" s="0">
+        <v>121.6869</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2483</v>
+      </c>
+      <c r="B13" s="0">
+        <v>122.8095</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2993</v>
+      </c>
+      <c r="B14" s="0">
+        <v>123.7075</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3516</v>
+      </c>
+      <c r="B15" s="0">
+        <v>124.3811</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3977</v>
+      </c>
+      <c r="B16" s="0">
+        <v>124.8301</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4475</v>
+      </c>
+      <c r="B17" s="0">
+        <v>125.5036</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4998</v>
+      </c>
+      <c r="B18" s="0">
+        <v>126.1772</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5484</v>
+      </c>
+      <c r="B19" s="0">
+        <v>126.6262</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5982</v>
+      </c>
+      <c r="B20" s="0">
+        <v>127.0752</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6492</v>
+      </c>
+      <c r="B21" s="0">
+        <v>127.5243</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6978</v>
+      </c>
+      <c r="B22" s="0">
+        <v>128.1978</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7476</v>
+      </c>
+      <c r="B23" s="0">
+        <v>128.8714</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7987</v>
+      </c>
+      <c r="B24" s="0">
+        <v>129.7694</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8193</v>
+      </c>
+      <c r="B25" s="0">
+        <v>130.2184</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8485</v>
+      </c>
+      <c r="B26" s="0">
+        <v>131.1165</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8728</v>
+      </c>
+      <c r="B27" s="0">
+        <v>131.79</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8983</v>
+      </c>
+      <c r="B28" s="0">
+        <v>133.0249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9226</v>
+      </c>
+      <c r="B29" s="0">
+        <v>134.9333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9699</v>
+      </c>
+      <c r="B30" s="0">
+        <v>142.7913</v>
+      </c>
+    </row>
+    <row r="31"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 98 Monolithic nitrogen doped carbon/Data98_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 98 Monolithic nitrogen doped carbon/Data98_all_graphs_excel.xlsx
@@ -5,19 +5,21 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 6 A-p1000  0-1-0-185 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 6 A-p1100  0-1-0-185 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 6 A-p600  0-1-0-185 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 6 A-p700  0-1-0-185 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 6 A-p800  0-1-0-185 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 6 A-p900  0-1-0-185 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 6 A-p1000  0&amp;1&amp;0&amp;185 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 6 A-p1100  0&amp;1&amp;0&amp;185 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 6 A-p600  0&amp;1&amp;0&amp;185 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 6 A-p700  0&amp;1&amp;0&amp;185 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 6 A-p800  0&amp;1&amp;0&amp;185 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 6 A-p900  0&amp;1&amp;0&amp;185 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 6 A-p900-KOH-1h  0&amp;1&amp;100" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 6 ReferenceSilicaGel  0&amp;" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>A-p1000</t>
   </si>
@@ -41,6 +43,12 @@
   </si>
   <si>
     <t>A-p900</t>
+  </si>
+  <si>
+    <t>A-p900-KOH-1h</t>
+  </si>
+  <si>
+    <t>ReferenceSilicaGel</t>
   </si>
 </sst>
 </file>
@@ -176,12 +184,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p1000  0-1-0-185 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 A-p1000  0&amp;1&amp;0&amp;185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p1000  0-1-0-185 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 A-p1000  0&amp;1&amp;0&amp;185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -490,12 +498,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p1100  0-1-0-185 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 A-p1100  0&amp;1&amp;0&amp;185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p1100  0-1-0-185 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 A-p1100  0&amp;1&amp;0&amp;185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -804,12 +812,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p600  0-1-0-185 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 A-p600  0&amp;1&amp;0&amp;185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p600  0-1-0-185 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 A-p600  0&amp;1&amp;0&amp;185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1118,12 +1126,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p700  0-1-0-185 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 A-p700  0&amp;1&amp;0&amp;185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p700  0-1-0-185 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 A-p700  0&amp;1&amp;0&amp;185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1432,12 +1440,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p800  0-1-0-185 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 A-p800  0&amp;1&amp;0&amp;185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p800  0-1-0-185 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 A-p800  0&amp;1&amp;0&amp;185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1746,12 +1754,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p900  0-1-0-185 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 A-p900  0&amp;1&amp;0&amp;185 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p900  0-1-0-185 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 A-p900  0&amp;1&amp;0&amp;185 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1837,6 +1845,634 @@
           <c:orientation val="minMax"/>
           <c:max val="185"/>
           <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki A-p900-KOH-1h z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 A-p900-KOH-1h  0&amp;1&amp;100'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 A-p900-KOH-1h  0&amp;1&amp;100'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki ReferenceSilicaGel z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 ReferenceSilicaGel  0&amp;'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 ReferenceSilicaGel  0&amp;'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2208,6 +2844,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -4814,6 +5530,1048 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5544,6 +7302,76 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7493,4 +9321,452 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0088</v>
+      </c>
+      <c r="B3" s="0">
+        <v>199.3958</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0293</v>
+      </c>
+      <c r="B4" s="0">
+        <v>218.5266</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0602</v>
+      </c>
+      <c r="B5" s="0">
+        <v>231.4844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0795</v>
+      </c>
+      <c r="B6" s="0">
+        <v>236.3293</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1031</v>
+      </c>
+      <c r="B7" s="0">
+        <v>240.4484</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1237</v>
+      </c>
+      <c r="B8" s="0">
+        <v>242.8722</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1467</v>
+      </c>
+      <c r="B9" s="0">
+        <v>245.0542</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1673</v>
+      </c>
+      <c r="B10" s="0">
+        <v>246.3884</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1861</v>
+      </c>
+      <c r="B11" s="0">
+        <v>247.3592</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2043</v>
+      </c>
+      <c r="B12" s="0">
+        <v>248.3299</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2497</v>
+      </c>
+      <c r="B13" s="0">
+        <v>250.1514</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3036</v>
+      </c>
+      <c r="B14" s="0">
+        <v>251.6107</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3545</v>
+      </c>
+      <c r="B15" s="0">
+        <v>252.8275</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4005</v>
+      </c>
+      <c r="B16" s="0">
+        <v>253.6805</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4502</v>
+      </c>
+      <c r="B17" s="0">
+        <v>254.6551</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4998</v>
+      </c>
+      <c r="B18" s="0">
+        <v>255.2664</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5495</v>
+      </c>
+      <c r="B19" s="0">
+        <v>255.8777</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.601</v>
+      </c>
+      <c r="B20" s="0">
+        <v>256.6104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6506</v>
+      </c>
+      <c r="B21" s="0">
+        <v>257.2217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7003</v>
+      </c>
+      <c r="B22" s="0">
+        <v>257.833</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7512</v>
+      </c>
+      <c r="B23" s="0">
+        <v>258.6867</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8009</v>
+      </c>
+      <c r="B24" s="0">
+        <v>259.4191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8208</v>
+      </c>
+      <c r="B25" s="0">
+        <v>259.7847</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8511</v>
+      </c>
+      <c r="B26" s="0">
+        <v>260.3937</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.876</v>
+      </c>
+      <c r="B27" s="0">
+        <v>261.2441</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9002</v>
+      </c>
+      <c r="B28" s="0">
+        <v>262.0945</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9256</v>
+      </c>
+      <c r="B29" s="0">
+        <v>263.4293</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9498</v>
+      </c>
+      <c r="B30" s="0">
+        <v>265.4904</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9728</v>
+      </c>
+      <c r="B31" s="0">
+        <v>269.7304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9819</v>
+      </c>
+      <c r="B32" s="0">
+        <v>273.3635</v>
+      </c>
+    </row>
+    <row r="33"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.009</v>
+      </c>
+      <c r="B3" s="0">
+        <v>134.2627</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0283</v>
+      </c>
+      <c r="B4" s="0">
+        <v>157.7517</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0591</v>
+      </c>
+      <c r="B5" s="0">
+        <v>176.3995</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0797</v>
+      </c>
+      <c r="B6" s="0">
+        <v>184.9976</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0997</v>
+      </c>
+      <c r="B7" s="0">
+        <v>192.0218</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1202</v>
+      </c>
+      <c r="B8" s="0">
+        <v>198.3197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1614</v>
+      </c>
+      <c r="B9" s="0">
+        <v>209.5838</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1832</v>
+      </c>
+      <c r="B10" s="0">
+        <v>214.9133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2449</v>
+      </c>
+      <c r="B11" s="0">
+        <v>229.0854</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.3055</v>
+      </c>
+      <c r="B12" s="0">
+        <v>240.4729</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3714</v>
+      </c>
+      <c r="B13" s="0">
+        <v>251.6189</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4495</v>
+      </c>
+      <c r="B14" s="0">
+        <v>261.1925</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4992</v>
+      </c>
+      <c r="B15" s="0">
+        <v>266.0411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5495</v>
+      </c>
+      <c r="B16" s="0">
+        <v>269.5581</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.799</v>
+      </c>
+      <c r="B17" s="0">
+        <v>275.5205</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.8196</v>
+      </c>
+      <c r="B18" s="0">
+        <v>275.7652</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.8747</v>
+      </c>
+      <c r="B19" s="0">
+        <v>276.4982</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.9486</v>
+      </c>
+      <c r="B20" s="0">
+        <v>277.3546</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.9892</v>
+      </c>
+      <c r="B21" s="0">
+        <v>277.7227</v>
+      </c>
+    </row>
+    <row r="22"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 98 Monolithic nitrogen doped carbon/Data98_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 98 Monolithic nitrogen doped carbon/Data98_all_graphs_excel.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Figure 6 A-p700  0&amp;1&amp;0&amp;185 " sheetId="4" r:id="rId6"/>
     <sheet name="Figure 6 A-p800  0&amp;1&amp;0&amp;185 " sheetId="5" r:id="rId7"/>
     <sheet name="Figure 6 A-p900  0&amp;1&amp;0&amp;185 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 6 A-p900-KOH-1h  0&amp;1&amp;100" sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 6 ReferenceSilicaGel  0&amp;" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 6_2 A-p900-KOH-1h  0&amp;1&amp;1" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 6_2 ReferenceSilicaGel  " sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -2009,7 +2009,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki A-p900-KOH-1h z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki A-p900-KOH-1h z wykresu 'Figure 6_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2068,12 +2068,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p900-KOH-1h  0&amp;1&amp;100'!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_2 A-p900-KOH-1h  0&amp;1&amp;1'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 A-p900-KOH-1h  0&amp;1&amp;100'!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_2 A-p900-KOH-1h  0&amp;1&amp;1'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2323,7 +2323,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ReferenceSilicaGel z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki ReferenceSilicaGel z wykresu 'Figure 6_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2382,12 +2382,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 ReferenceSilicaGel  0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_2 ReferenceSilicaGel  '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 ReferenceSilicaGel  0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_2 ReferenceSilicaGel  '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
